--- a/Datos/Database by set/Set with text box/Xlsx sets/HarperPrism Book Promos (PHPR).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/HarperPrism Book Promos (PHPR).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,154 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arena</t>
+          <t>('Arena', ['Land', '{3}, {T}: Tap target creature you control and target creature of an opponent’s choice they control. Those creatures fight each other. (Each deals damage equal to its power to the other.)'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Land</t>
+          <t>('Giant Badger', ['{1}{G}{G}', 'Creature — Badger', 'Whenever Giant Badger blocks, it gets +2/+2 until end of turn.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{3}, {T}: Tap target creature you control and target creature of an opponent’s choice they control. Those creatures fight each other. (Each deals damage equal to its power to the other.)</t>
+          <t>('Mana Crypt', ['{0}', 'Artifact', 'At the beginning of your upkeep, flip a coin. If you lose the flip, Mana Crypt deals 3 damage to you.', '{T}: Add {C}{C}.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Giant Badger</t>
+          <t>('Sewers of Estark', ['{2}{B}{B}', 'Instant', 'Choose target creature. If it’s attacking, it can’t be blocked this turn. If it’s blocking, prevent all combat damage that would be dealt this combat by it and each creature it’s blocking.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{1}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Creature — Badger</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Whenever Giant Badger blocks, it gets +2/+2 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Mana Crypt</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>{0}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>At the beginning of your upkeep, flip a coin. If you lose the flip, Mana Crypt deals 3 damage to you.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>{T}: Add {C}{C}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Sewers of Estark</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>{2}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Choose target creature. If it’s attacking, it can’t be blocked this turn. If it’s blocking, prevent all combat damage that would be dealt this combat by it and each creature it’s blocking.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Windseeker Centaur</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>{1}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Creature — Centaur</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Vigilance</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Windseeker Centaur', ['{1}{R}{R}', 'Creature — Centaur', 'Vigilance', '2/2'])</t>
         </is>
       </c>
     </row>
